--- a/scripts/RestClient/2ha/2ha_first_batch.xlsx
+++ b/scripts/RestClient/2ha/2ha_first_batch.xlsx
@@ -659,12 +659,6 @@
     <t>visibility</t>
   </si>
   <si>
-    <t>per_cover</t>
-  </si>
-  <si>
-    <t>undestorey_per_cover</t>
-  </si>
-  <si>
     <t>tracking_suitabliity</t>
   </si>
   <si>
@@ -789,6 +783,12 @@
   </si>
   <si>
     <t>percentOfPlotSuitable_4</t>
+  </si>
+  <si>
+    <t>percentCoverOverstorey</t>
+  </si>
+  <si>
+    <t>percentCoverUnderstorey</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -906,6 +906,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -970,7 +996,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -985,6 +1011,19 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1000,6 +1039,19 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -1286,7 +1338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AP1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1350,34 +1402,34 @@
   <sheetData>
     <row r="1" spans="1:59" s="17" customFormat="1" ht="15">
       <c r="A1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>207</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>208</v>
@@ -1386,112 +1438,112 @@
         <v>209</v>
       </c>
       <c r="M1" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>210</v>
       </c>
       <c r="V1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="X1" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AC1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AG1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AM1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN1" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="AG1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AR1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AS1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AT1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AU1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AV1" s="20" t="s">
         <v>248</v>
-      </c>
-      <c r="AU1" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV1" s="20" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:59">

--- a/scripts/RestClient/2ha/2ha_first_batch.xlsx
+++ b/scripts/RestClient/2ha/2ha_first_batch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="640" windowWidth="41280" windowHeight="11420"/>
+    <workbookView xWindow="2520" yWindow="640" windowWidth="47800" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="2ha Track Plot Datasheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="252">
   <si>
     <t/>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unknown </t>
-  </si>
-  <si>
-    <t>1 - If present you would be able to distinguish 2 + 3 plus hopping mice rodent small bird insect etc.</t>
   </si>
   <si>
     <t>Bos sp.</t>
@@ -500,9 +497,6 @@
     <t>8 km S of Tilcha Bore, Quinyambie</t>
   </si>
   <si>
-    <t>2 - If present you would be able to distinguish all of 3 plus fox cat rabbit echidna large reptiles and goannas</t>
-  </si>
-  <si>
     <t>1 h</t>
   </si>
   <si>
@@ -515,9 +509,6 @@
     <t>20 km W of Frome Downs boundary on Yandama Creek</t>
   </si>
   <si>
-    <t>3 - If present you would be able to distinguish camel human dingo emu or kangaroo tracks only</t>
-  </si>
-  <si>
     <t>F37</t>
   </si>
   <si>
@@ -668,9 +659,6 @@
     <t>recordedBy</t>
   </si>
   <si>
-    <t>collectedBy</t>
-  </si>
-  <si>
     <t>plotId</t>
   </si>
   <si>
@@ -789,6 +777,9 @@
   </si>
   <si>
     <t>percentCoverUnderstorey</t>
+  </si>
+  <si>
+    <t>observedBy</t>
   </si>
 </sst>
 </file>
@@ -898,7 +889,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -906,6 +897,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -996,7 +1005,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1024,6 +1033,15 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1052,6 +1070,15 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -1348,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="T99" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="W112" sqref="W112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1375,7 +1402,7 @@
     <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="63.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="81" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="75.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1402,148 +1429,148 @@
   <sheetData>
     <row r="1" spans="1:59" s="17" customFormat="1" ht="15">
       <c r="A1" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="K1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="V1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="AM1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AN1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AP1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AG1" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AR1" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AS1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AT1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AU1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AV1" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="AS1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AT1" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AU1" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AV1" s="20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:59">
@@ -1602,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X2" s="7">
         <v>80</v>
@@ -1630,7 +1657,7 @@
         <v>46</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO2" s="7" t="b">
         <v>1</v>
@@ -1654,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
@@ -1724,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X3" s="7">
         <v>80</v>
@@ -1752,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO3" s="7" t="b">
         <v>1</v>
@@ -1776,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW3" s="13"/>
       <c r="AX3" s="13"/>
@@ -1846,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X4" s="7">
         <v>80</v>
@@ -1874,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO4" s="7" t="b">
         <v>1</v>
@@ -1898,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
@@ -1917,13 +1944,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>42286</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3">
         <v>0.31458333333333333</v>
@@ -1942,7 +1969,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="12">
@@ -1968,7 +1995,7 @@
         <v>500</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X5" s="7">
         <v>50</v>
@@ -1983,10 +2010,10 @@
         <v>140.9709</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="1" t="s">
@@ -1996,7 +2023,7 @@
         <v>46</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO5" s="7" t="b">
         <v>0</v>
@@ -2020,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
@@ -2039,13 +2066,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>42286</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
         <v>0.31458333333333333</v>
@@ -2064,7 +2091,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="12">
@@ -2090,7 +2117,7 @@
         <v>500</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X6" s="7">
         <v>50</v>
@@ -2105,10 +2132,10 @@
         <v>140.9709</v>
       </c>
       <c r="AC6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="1" t="s">
@@ -2118,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO6" s="7" t="b">
         <v>1</v>
@@ -2142,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
@@ -2161,13 +2188,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>42286</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3">
         <v>0.31458333333333333</v>
@@ -2186,7 +2213,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="12">
@@ -2212,7 +2239,7 @@
         <v>500</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X7" s="7">
         <v>50</v>
@@ -2227,10 +2254,10 @@
         <v>140.9709</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="1" t="s">
@@ -2240,7 +2267,7 @@
         <v>46</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO7" s="7" t="b">
         <v>1</v>
@@ -2264,7 +2291,7 @@
         <v>35</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
@@ -2334,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X8" s="7">
         <v>80</v>
@@ -2362,7 +2389,7 @@
         <v>46</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO8" s="7" t="b">
         <v>0</v>
@@ -2386,7 +2413,7 @@
         <v>35</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW8" s="13"/>
       <c r="AX8" s="13"/>
@@ -2405,13 +2432,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2">
         <v>42285</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3">
         <v>0.42708333333333331</v>
@@ -2430,7 +2457,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="12">
@@ -2456,7 +2483,7 @@
         <v>100</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X9" s="7">
         <v>90</v>
@@ -2471,20 +2498,20 @@
         <v>140.91380000000001</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO9" s="7" t="b">
         <v>1</v>
@@ -2508,7 +2535,7 @@
         <v>36</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
@@ -2527,13 +2554,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>42285</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>0.42708333333333331</v>
@@ -2552,7 +2579,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="12">
@@ -2578,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X10" s="7">
         <v>90</v>
@@ -2593,20 +2620,20 @@
         <v>140.91380000000001</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO10" s="7" t="b">
         <v>1</v>
@@ -2630,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
@@ -2649,13 +2676,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>42285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
         <v>0.42708333333333331</v>
@@ -2674,7 +2701,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="12">
@@ -2700,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X11" s="7">
         <v>90</v>
@@ -2715,20 +2742,20 @@
         <v>140.91380000000001</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO11" s="7" t="b">
         <v>1</v>
@@ -2752,7 +2779,7 @@
         <v>35</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
@@ -2777,7 +2804,7 @@
         <v>42285</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>0.4548611111111111</v>
@@ -2796,7 +2823,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="12">
@@ -2822,7 +2849,7 @@
         <v>90</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X12" s="7">
         <v>75</v>
@@ -2837,10 +2864,10 @@
         <v>140.88069999999999</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="1" t="s">
@@ -2850,7 +2877,7 @@
         <v>46</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO12" s="7" t="b">
         <v>1</v>
@@ -2874,7 +2901,7 @@
         <v>35</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
@@ -2899,7 +2926,7 @@
         <v>42285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3">
         <v>0.4548611111111111</v>
@@ -2918,7 +2945,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="12">
@@ -2944,7 +2971,7 @@
         <v>90</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X13" s="7">
         <v>75</v>
@@ -2959,10 +2986,10 @@
         <v>140.88069999999999</v>
       </c>
       <c r="AC13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="1" t="s">
@@ -2972,7 +2999,7 @@
         <v>46</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO13" s="7" t="b">
         <v>0</v>
@@ -2996,7 +3023,7 @@
         <v>35</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
@@ -3021,7 +3048,7 @@
         <v>42285</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3">
         <v>0.4548611111111111</v>
@@ -3040,7 +3067,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="12">
@@ -3066,7 +3093,7 @@
         <v>90</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X14" s="7">
         <v>75</v>
@@ -3081,10 +3108,10 @@
         <v>140.88069999999999</v>
       </c>
       <c r="AC14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="1" t="s">
@@ -3094,7 +3121,7 @@
         <v>46</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO14" s="7" t="b">
         <v>1</v>
@@ -3118,7 +3145,7 @@
         <v>35</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
@@ -3143,7 +3170,7 @@
         <v>42285</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3">
         <v>0.48819444444444443</v>
@@ -3162,7 +3189,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="12">
@@ -3188,7 +3215,7 @@
         <v>60</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X15" s="7">
         <v>80</v>
@@ -3203,10 +3230,10 @@
         <v>140.91640000000001</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="1" t="s">
@@ -3216,7 +3243,7 @@
         <v>46</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO15" s="7" t="b">
         <v>1</v>
@@ -3240,7 +3267,7 @@
         <v>35</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
@@ -3265,7 +3292,7 @@
         <v>42285</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3">
         <v>0.48819444444444443</v>
@@ -3284,7 +3311,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="12">
@@ -3310,7 +3337,7 @@
         <v>60</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X16" s="7">
         <v>80</v>
@@ -3325,10 +3352,10 @@
         <v>140.91640000000001</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="1" t="s">
@@ -3338,7 +3365,7 @@
         <v>46</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO16" s="7" t="b">
         <v>0</v>
@@ -3362,7 +3389,7 @@
         <v>35</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
@@ -3387,7 +3414,7 @@
         <v>42285</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3">
         <v>0.48819444444444443</v>
@@ -3406,7 +3433,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="12">
@@ -3432,7 +3459,7 @@
         <v>60</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X17" s="7">
         <v>80</v>
@@ -3447,10 +3474,10 @@
         <v>140.91640000000001</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="1" t="s">
@@ -3460,7 +3487,7 @@
         <v>46</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO17" s="7" t="b">
         <v>1</v>
@@ -3484,7 +3511,7 @@
         <v>35</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
@@ -3509,7 +3536,7 @@
         <v>42285</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3">
         <v>0.48819444444444443</v>
@@ -3528,7 +3555,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="12">
@@ -3554,7 +3581,7 @@
         <v>60</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X18" s="7">
         <v>80</v>
@@ -3569,10 +3596,10 @@
         <v>140.91640000000001</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="1" t="s">
@@ -3582,7 +3609,7 @@
         <v>46</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO18" s="7" t="b">
         <v>1</v>
@@ -3606,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
@@ -3625,13 +3652,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
         <v>42285</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3">
         <v>0.56666666666666665</v>
@@ -3650,7 +3677,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="12">
@@ -3676,7 +3703,7 @@
         <v>50</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X19" s="7">
         <v>90</v>
@@ -3691,20 +3718,20 @@
         <v>140.91820000000001</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO19" s="7" t="b">
         <v>0</v>
@@ -3728,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW19" s="13"/>
       <c r="AX19" s="13"/>
@@ -3747,13 +3774,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2">
         <v>42285</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
         <v>0.56666666666666665</v>
@@ -3772,7 +3799,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="12">
@@ -3798,7 +3825,7 @@
         <v>50</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X20" s="7">
         <v>90</v>
@@ -3813,20 +3840,20 @@
         <v>140.91820000000001</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO20" s="7" t="b">
         <v>1</v>
@@ -3845,10 +3872,10 @@
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW20" s="13"/>
       <c r="AX20" s="13"/>
@@ -3867,13 +3894,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
         <v>42285</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3">
         <v>0.56666666666666665</v>
@@ -3892,7 +3919,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="12">
@@ -3918,7 +3945,7 @@
         <v>50</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X21" s="7">
         <v>90</v>
@@ -3933,20 +3960,20 @@
         <v>140.91820000000001</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO21" s="7" t="b">
         <v>0</v>
@@ -3970,7 +3997,7 @@
         <v>35</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW21" s="13"/>
       <c r="AX21" s="13"/>
@@ -3989,13 +4016,13 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2">
         <v>42285</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3">
         <v>0.56666666666666665</v>
@@ -4014,7 +4041,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="12">
@@ -4040,7 +4067,7 @@
         <v>50</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X22" s="7">
         <v>90</v>
@@ -4055,20 +4082,20 @@
         <v>140.91820000000001</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO22" s="7" t="b">
         <v>1</v>
@@ -4092,7 +4119,7 @@
         <v>35</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW22" s="13"/>
       <c r="AX22" s="13"/>
@@ -4111,13 +4138,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2">
         <v>42285</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="3">
         <v>0.56666666666666665</v>
@@ -4136,7 +4163,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="12">
@@ -4162,7 +4189,7 @@
         <v>50</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X23" s="7">
         <v>90</v>
@@ -4177,20 +4204,20 @@
         <v>140.91820000000001</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO23" s="7" t="b">
         <v>1</v>
@@ -4214,7 +4241,7 @@
         <v>35</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW23" s="13"/>
       <c r="AX23" s="13"/>
@@ -4233,13 +4260,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2">
         <v>42285</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3">
         <v>0.67361111111111116</v>
@@ -4258,7 +4285,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="12">
@@ -4284,7 +4311,7 @@
         <v>200</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X24" s="7">
         <v>0</v>
@@ -4299,10 +4326,10 @@
         <v>140.9136</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE24" s="7"/>
       <c r="AF24" s="1" t="s">
@@ -4312,7 +4339,7 @@
         <v>46</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO24" s="7" t="b">
         <v>1</v>
@@ -4336,7 +4363,7 @@
         <v>35</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW24" s="13"/>
       <c r="AX24" s="13"/>
@@ -4355,13 +4382,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2">
         <v>42285</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3">
         <v>0.67361111111111116</v>
@@ -4380,7 +4407,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="12">
@@ -4406,7 +4433,7 @@
         <v>200</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X25" s="7">
         <v>0</v>
@@ -4421,10 +4448,10 @@
         <v>140.9136</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="1" t="s">
@@ -4434,7 +4461,7 @@
         <v>46</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO25" s="7" t="b">
         <v>1</v>
@@ -4458,7 +4485,7 @@
         <v>35</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW25" s="13"/>
       <c r="AX25" s="13"/>
@@ -4477,13 +4504,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2">
         <v>42285</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3">
         <v>0.67361111111111116</v>
@@ -4502,7 +4529,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="12">
@@ -4528,7 +4555,7 @@
         <v>200</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X26" s="7">
         <v>0</v>
@@ -4543,10 +4570,10 @@
         <v>140.9136</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="1" t="s">
@@ -4556,7 +4583,7 @@
         <v>46</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO26" s="7" t="b">
         <v>1</v>
@@ -4580,7 +4607,7 @@
         <v>35</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW26" s="13"/>
       <c r="AX26" s="13"/>
@@ -4599,13 +4626,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2">
         <v>42285</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3">
         <v>0.67361111111111116</v>
@@ -4624,7 +4651,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="12">
@@ -4650,7 +4677,7 @@
         <v>200</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X27" s="7">
         <v>0</v>
@@ -4665,10 +4692,10 @@
         <v>140.9136</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE27" s="7"/>
       <c r="AF27" s="1" t="s">
@@ -4678,7 +4705,7 @@
         <v>46</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO27" s="7" t="b">
         <v>1</v>
@@ -4702,7 +4729,7 @@
         <v>35</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW27" s="13"/>
       <c r="AX27" s="13"/>
@@ -4721,13 +4748,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2">
         <v>42285</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3">
         <v>0.71527777777777779</v>
@@ -4746,7 +4773,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="12">
@@ -4772,7 +4799,7 @@
         <v>300</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X28" s="7">
         <v>90</v>
@@ -4787,10 +4814,10 @@
         <v>140.97579999999999</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="1" t="s">
@@ -4800,7 +4827,7 @@
         <v>46</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO28" s="7" t="b">
         <v>1</v>
@@ -4824,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW28" s="13"/>
       <c r="AX28" s="13"/>
@@ -4843,13 +4870,13 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2">
         <v>42285</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="3">
         <v>0.71527777777777779</v>
@@ -4868,7 +4895,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="12">
@@ -4894,7 +4921,7 @@
         <v>300</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X29" s="7">
         <v>90</v>
@@ -4909,10 +4936,10 @@
         <v>140.97579999999999</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="1" t="s">
@@ -4922,7 +4949,7 @@
         <v>46</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO29" s="7" t="b">
         <v>1</v>
@@ -4946,7 +4973,7 @@
         <v>35</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW29" s="13"/>
       <c r="AX29" s="13"/>
@@ -4965,13 +4992,13 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>42285</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="3">
         <v>0.76527777777777772</v>
@@ -4990,7 +5017,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="12">
@@ -5016,7 +5043,7 @@
         <v>1000</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X30" s="7">
         <v>70</v>
@@ -5031,10 +5058,10 @@
         <v>141</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE30" s="7"/>
       <c r="AF30" s="1" t="s">
@@ -5044,7 +5071,7 @@
         <v>46</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO30" s="7" t="b">
         <v>1</v>
@@ -5068,7 +5095,7 @@
         <v>35</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW30" s="13"/>
       <c r="AX30" s="13"/>
@@ -5087,13 +5114,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
         <v>42286</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="3">
         <v>0.33333333333333331</v>
@@ -5112,7 +5139,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="12">
@@ -5138,7 +5165,7 @@
         <v>300</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X31" s="7">
         <v>60</v>
@@ -5153,20 +5180,20 @@
         <v>140.92490000000001</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO31" s="7" t="b">
         <v>1</v>
@@ -5190,7 +5217,7 @@
         <v>35</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW31" s="13"/>
       <c r="AX31" s="13"/>
@@ -5209,13 +5236,13 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
         <v>42286</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3">
         <v>0.33333333333333331</v>
@@ -5234,7 +5261,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="12">
@@ -5260,7 +5287,7 @@
         <v>300</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X32" s="7">
         <v>60</v>
@@ -5275,20 +5302,20 @@
         <v>140.92490000000001</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO32" s="7" t="b">
         <v>1</v>
@@ -5312,7 +5339,7 @@
         <v>35</v>
       </c>
       <c r="AV32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW32" s="13"/>
       <c r="AX32" s="13"/>
@@ -5331,13 +5358,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2">
         <v>42286</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3">
         <v>0.33333333333333331</v>
@@ -5356,7 +5383,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="12">
@@ -5382,7 +5409,7 @@
         <v>300</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X33" s="7">
         <v>60</v>
@@ -5397,20 +5424,20 @@
         <v>140.92490000000001</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO33" s="7" t="b">
         <v>1</v>
@@ -5434,7 +5461,7 @@
         <v>35</v>
       </c>
       <c r="AV33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW33" s="13"/>
       <c r="AX33" s="13"/>
@@ -5453,13 +5480,13 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2">
         <v>42286</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="3">
         <v>0.36458333333333331</v>
@@ -5478,7 +5505,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="12">
@@ -5504,7 +5531,7 @@
         <v>300</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X34" s="7">
         <v>80</v>
@@ -5519,10 +5546,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="1" t="s">
@@ -5532,7 +5559,7 @@
         <v>46</v>
       </c>
       <c r="AN34" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO34" s="7" t="b">
         <v>1</v>
@@ -5556,7 +5583,7 @@
         <v>37</v>
       </c>
       <c r="AV34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW34" s="13"/>
       <c r="AX34" s="13"/>
@@ -5575,13 +5602,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2">
         <v>42286</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="3">
         <v>0.36458333333333331</v>
@@ -5600,7 +5627,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="12">
@@ -5626,7 +5653,7 @@
         <v>300</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X35" s="7">
         <v>80</v>
@@ -5641,10 +5668,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="1" t="s">
@@ -5654,7 +5681,7 @@
         <v>46</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO35" s="7" t="b">
         <v>0</v>
@@ -5678,7 +5705,7 @@
         <v>35</v>
       </c>
       <c r="AV35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW35" s="13"/>
       <c r="AX35" s="13"/>
@@ -5697,13 +5724,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2">
         <v>42286</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="3">
         <v>0.36458333333333331</v>
@@ -5722,7 +5749,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="12">
@@ -5748,7 +5775,7 @@
         <v>300</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X36" s="7">
         <v>80</v>
@@ -5763,10 +5790,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="1" t="s">
@@ -5776,7 +5803,7 @@
         <v>46</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO36" s="7" t="b">
         <v>1</v>
@@ -5800,7 +5827,7 @@
         <v>35</v>
       </c>
       <c r="AV36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW36" s="13"/>
       <c r="AX36" s="13"/>
@@ -5819,13 +5846,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
         <v>42286</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="3">
         <v>0.36458333333333331</v>
@@ -5844,7 +5871,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="12">
@@ -5870,7 +5897,7 @@
         <v>300</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X37" s="7">
         <v>80</v>
@@ -5885,10 +5912,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD37" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="1" t="s">
@@ -5898,7 +5925,7 @@
         <v>46</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO37" s="7" t="b">
         <v>1</v>
@@ -5922,7 +5949,7 @@
         <v>35</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW37" s="13"/>
       <c r="AX37" s="13"/>
@@ -5941,13 +5968,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2">
         <v>42286</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="3">
         <v>0.36458333333333331</v>
@@ -5966,7 +5993,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="12">
@@ -5992,7 +6019,7 @@
         <v>300</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X38" s="7">
         <v>80</v>
@@ -6007,10 +6034,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="1" t="s">
@@ -6020,7 +6047,7 @@
         <v>46</v>
       </c>
       <c r="AN38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO38" s="7" t="b">
         <v>1</v>
@@ -6044,7 +6071,7 @@
         <v>35</v>
       </c>
       <c r="AV38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW38" s="13"/>
       <c r="AX38" s="13"/>
@@ -6063,13 +6090,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
         <v>42286</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="3">
         <v>0.36458333333333331</v>
@@ -6088,7 +6115,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="12">
@@ -6114,7 +6141,7 @@
         <v>300</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X39" s="7">
         <v>80</v>
@@ -6129,10 +6156,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="1" t="s">
@@ -6142,7 +6169,7 @@
         <v>46</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO39" s="7" t="b">
         <v>1</v>
@@ -6166,7 +6193,7 @@
         <v>35</v>
       </c>
       <c r="AV39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW39" s="13"/>
       <c r="AX39" s="13"/>
@@ -6185,13 +6212,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2">
         <v>42286</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="3">
         <v>0.40208333333333335</v>
@@ -6210,14 +6237,14 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="12">
         <v>0.109</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="8" t="s">
@@ -6236,7 +6263,7 @@
         <v>275</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X40" s="7">
         <v>90</v>
@@ -6251,20 +6278,20 @@
         <v>140.80369999999999</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO40" s="7" t="b">
         <v>0</v>
@@ -6288,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="AV40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW40" s="13"/>
       <c r="AX40" s="13"/>
@@ -6307,13 +6334,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>42286</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="3">
         <v>0.40208333333333335</v>
@@ -6332,14 +6359,14 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="12">
         <v>0.108</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="8" t="s">
@@ -6358,7 +6385,7 @@
         <v>275</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X41" s="7">
         <v>90</v>
@@ -6373,20 +6400,20 @@
         <v>140.80369999999999</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD41" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG41" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO41" s="7" t="b">
         <v>0</v>
@@ -6410,7 +6437,7 @@
         <v>35</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW41" s="13"/>
       <c r="AX41" s="13"/>
@@ -6429,13 +6456,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
         <v>42286</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" s="3">
         <v>0.45</v>
@@ -6454,7 +6481,7 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="12">
@@ -6480,7 +6507,7 @@
         <v>80</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X42" s="7">
         <v>75</v>
@@ -6495,20 +6522,20 @@
         <v>140.78319999999999</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG42" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO42" s="7" t="b">
         <v>1</v>
@@ -6532,7 +6559,7 @@
         <v>35</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW42" s="13"/>
       <c r="AX42" s="13"/>
@@ -6551,13 +6578,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2">
         <v>42286</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="3">
         <v>0.45</v>
@@ -6576,7 +6603,7 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="12">
@@ -6602,7 +6629,7 @@
         <v>80</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X43" s="7">
         <v>75</v>
@@ -6617,20 +6644,20 @@
         <v>140.78319999999999</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG43" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO43" s="7" t="b">
         <v>0</v>
@@ -6654,7 +6681,7 @@
         <v>36</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW43" s="13"/>
       <c r="AX43" s="13"/>
@@ -6673,13 +6700,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2">
         <v>42286</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3">
         <v>0.45</v>
@@ -6698,7 +6725,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="12">
@@ -6724,7 +6751,7 @@
         <v>80</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X44" s="7">
         <v>75</v>
@@ -6739,20 +6766,20 @@
         <v>140.78319999999999</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG44" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO44" s="7" t="b">
         <v>1</v>
@@ -6776,7 +6803,7 @@
         <v>35</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW44" s="13"/>
       <c r="AX44" s="13"/>
@@ -6795,13 +6822,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2">
         <v>42286</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="3">
         <v>0.45</v>
@@ -6820,7 +6847,7 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="12">
@@ -6846,7 +6873,7 @@
         <v>80</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X45" s="7">
         <v>75</v>
@@ -6861,20 +6888,20 @@
         <v>140.78319999999999</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG45" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO45" s="7" t="b">
         <v>1</v>
@@ -6898,7 +6925,7 @@
         <v>35</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW45" s="13"/>
       <c r="AX45" s="13"/>
@@ -6917,13 +6944,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2">
         <v>42286</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="3">
         <v>0.70486111111111116</v>
@@ -6942,7 +6969,7 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="12">
@@ -6968,7 +6995,7 @@
         <v>250</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="1" t="s">
@@ -6981,20 +7008,20 @@
         <v>140.55950000000001</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO46" s="7" t="b">
         <v>0</v>
@@ -7016,7 +7043,7 @@
         <v>37</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW46" s="13"/>
       <c r="AX46" s="13"/>
@@ -7035,13 +7062,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2">
         <v>42286</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="3">
         <v>0.70486111111111116</v>
@@ -7060,7 +7087,7 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="12">
@@ -7086,7 +7113,7 @@
         <v>250</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X47" s="11"/>
       <c r="Y47" s="1" t="s">
@@ -7099,20 +7126,20 @@
         <v>140.55950000000001</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO47" s="7" t="b">
         <v>1</v>
@@ -7136,7 +7163,7 @@
         <v>35</v>
       </c>
       <c r="AV47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW47" s="13"/>
       <c r="AX47" s="13"/>
@@ -7155,13 +7182,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2">
         <v>42286</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="3">
         <v>0.70486111111111116</v>
@@ -7180,7 +7207,7 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="12">
@@ -7206,7 +7233,7 @@
         <v>250</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X48" s="11"/>
       <c r="Y48" s="1" t="s">
@@ -7219,20 +7246,20 @@
         <v>140.55950000000001</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD48" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG48" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO48" s="7" t="b">
         <v>1</v>
@@ -7256,7 +7283,7 @@
         <v>35</v>
       </c>
       <c r="AV48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW48" s="13"/>
       <c r="AX48" s="13"/>
@@ -7275,13 +7302,13 @@
         <v>38</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2">
         <v>42286</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="3">
         <v>0.70486111111111116</v>
@@ -7300,7 +7327,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="12">
@@ -7326,7 +7353,7 @@
         <v>250</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="1" t="s">
@@ -7339,20 +7366,20 @@
         <v>140.55950000000001</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO49" s="7" t="b">
         <v>1</v>
@@ -7376,7 +7403,7 @@
         <v>35</v>
       </c>
       <c r="AV49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW49" s="13"/>
       <c r="AX49" s="13"/>
@@ -7395,13 +7422,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2">
         <v>42286</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="3">
         <v>0.73611111111111116</v>
@@ -7420,7 +7447,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="12">
@@ -7461,20 +7488,20 @@
         <v>140.44630000000001</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE50" s="7"/>
       <c r="AF50" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN50" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AN50" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="AO50" s="7" t="b">
         <v>1</v>
@@ -7498,7 +7525,7 @@
         <v>37</v>
       </c>
       <c r="AV50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW50" s="13"/>
       <c r="AX50" s="13"/>
@@ -7517,13 +7544,13 @@
         <v>38</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>42286</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="3">
         <v>0.73611111111111116</v>
@@ -7542,7 +7569,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="12">
@@ -7583,20 +7610,20 @@
         <v>140.44630000000001</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE51" s="7"/>
       <c r="AF51" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG51" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO51" s="7" t="b">
         <v>1</v>
@@ -7617,10 +7644,10 @@
         <v>34</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW51" s="13"/>
       <c r="AX51" s="13"/>
@@ -7639,13 +7666,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2">
         <v>42286</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="3">
         <v>0.77083333333333337</v>
@@ -7664,7 +7691,7 @@
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="12">
@@ -7690,7 +7717,7 @@
         <v>1000</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -7705,20 +7732,20 @@
         <v>140.35980000000001</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD52" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG52" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN52" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO52" s="7" t="b">
         <v>1</v>
@@ -7742,7 +7769,7 @@
         <v>37</v>
       </c>
       <c r="AV52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW52" s="13"/>
       <c r="AX52" s="13"/>
@@ -7761,13 +7788,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2">
         <v>42286</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="3">
         <v>0.77083333333333337</v>
@@ -7786,7 +7813,7 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="12">
@@ -7812,7 +7839,7 @@
         <v>1000</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X53" s="7">
         <v>0</v>
@@ -7827,20 +7854,20 @@
         <v>140.35980000000001</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD53" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG53" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO53" s="7" t="b">
         <v>1</v>
@@ -7864,7 +7891,7 @@
         <v>35</v>
       </c>
       <c r="AV53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW53" s="13"/>
       <c r="AX53" s="13"/>
@@ -7883,13 +7910,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2">
         <v>42287</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E54" s="3">
         <v>0.30555555555555558</v>
@@ -7908,7 +7935,7 @@
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="12">
@@ -7919,7 +7946,7 @@
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>16</v>
@@ -7934,7 +7961,7 @@
         <v>700</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X54" s="7">
         <v>0</v>
@@ -7949,7 +7976,7 @@
         <v>140.28909999999999</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD54" s="7" t="s">
         <v>45</v>
@@ -7960,7 +7987,7 @@
         <v>46</v>
       </c>
       <c r="AN54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO54" s="7" t="b">
         <v>1</v>
@@ -7984,7 +8011,7 @@
         <v>35</v>
       </c>
       <c r="AV54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW54" s="13"/>
       <c r="AX54" s="13"/>
@@ -8003,13 +8030,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2">
         <v>42287</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" s="3">
         <v>0.30555555555555558</v>
@@ -8028,7 +8055,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="12">
@@ -8039,7 +8066,7 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>16</v>
@@ -8054,7 +8081,7 @@
         <v>700</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X55" s="7">
         <v>0</v>
@@ -8069,7 +8096,7 @@
         <v>140.28909999999999</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD55" s="7" t="s">
         <v>45</v>
@@ -8080,7 +8107,7 @@
         <v>46</v>
       </c>
       <c r="AN55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO55" s="7" t="b">
         <v>0</v>
@@ -8104,7 +8131,7 @@
         <v>35</v>
       </c>
       <c r="AV55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW55" s="13"/>
       <c r="AX55" s="13"/>
@@ -8123,13 +8150,13 @@
         <v>38</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2">
         <v>42287</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="3">
         <v>0.30555555555555558</v>
@@ -8148,7 +8175,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="12">
@@ -8159,7 +8186,7 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>16</v>
@@ -8174,7 +8201,7 @@
         <v>700</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X56" s="7">
         <v>0</v>
@@ -8189,7 +8216,7 @@
         <v>140.28909999999999</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD56" s="7" t="s">
         <v>45</v>
@@ -8200,7 +8227,7 @@
         <v>46</v>
       </c>
       <c r="AN56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO56" s="7" t="b">
         <v>1</v>
@@ -8224,7 +8251,7 @@
         <v>35</v>
       </c>
       <c r="AV56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW56" s="13"/>
       <c r="AX56" s="13"/>
@@ -8243,13 +8270,13 @@
         <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2">
         <v>42287</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E57" s="3">
         <v>0.34722222222222221</v>
@@ -8268,7 +8295,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="12">
@@ -8294,7 +8321,7 @@
         <v>300</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X57" s="7">
         <v>0</v>
@@ -8309,20 +8336,20 @@
         <v>140.36490000000001</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD57" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE57" s="7"/>
       <c r="AF57" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN57" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO57" s="7" t="b">
         <v>1</v>
@@ -8346,7 +8373,7 @@
         <v>37</v>
       </c>
       <c r="AV57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW57" s="13"/>
       <c r="AX57" s="13"/>
@@ -8365,13 +8392,13 @@
         <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2">
         <v>42287</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="3">
         <v>0.34722222222222221</v>
@@ -8390,7 +8417,7 @@
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="12">
@@ -8416,7 +8443,7 @@
         <v>300</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X58" s="7">
         <v>0</v>
@@ -8431,20 +8458,20 @@
         <v>140.36490000000001</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD58" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE58" s="7"/>
       <c r="AF58" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG58" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO58" s="7" t="b">
         <v>1</v>
@@ -8468,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="AV58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW58" s="13"/>
       <c r="AX58" s="13"/>
@@ -8487,13 +8514,13 @@
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2">
         <v>42287</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="3">
         <v>0.37361111111111112</v>
@@ -8512,7 +8539,7 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="12">
@@ -8538,7 +8565,7 @@
         <v>250</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X59" s="7">
         <v>80</v>
@@ -8553,20 +8580,20 @@
         <v>140.4161</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD59" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE59" s="7"/>
       <c r="AF59" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG59" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN59" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO59" s="7" t="b">
         <v>1</v>
@@ -8590,7 +8617,7 @@
         <v>36</v>
       </c>
       <c r="AV59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW59" s="13"/>
       <c r="AX59" s="13"/>
@@ -8609,13 +8636,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2">
         <v>42287</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="3">
         <v>0.37361111111111112</v>
@@ -8634,7 +8661,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="12">
@@ -8660,7 +8687,7 @@
         <v>250</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X60" s="7">
         <v>80</v>
@@ -8675,20 +8702,20 @@
         <v>140.4161</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD60" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE60" s="7"/>
       <c r="AF60" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG60" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO60" s="7" t="b">
         <v>1</v>
@@ -8712,7 +8739,7 @@
         <v>35</v>
       </c>
       <c r="AV60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW60" s="13"/>
       <c r="AX60" s="13"/>
@@ -8731,13 +8758,13 @@
         <v>38</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2">
         <v>42287</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="3">
         <v>0.37361111111111112</v>
@@ -8756,7 +8783,7 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="12">
@@ -8782,7 +8809,7 @@
         <v>250</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X61" s="7">
         <v>80</v>
@@ -8797,20 +8824,20 @@
         <v>140.4161</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD61" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG61" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO61" s="7" t="b">
         <v>0</v>
@@ -8834,7 +8861,7 @@
         <v>37</v>
       </c>
       <c r="AV61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW61" s="13"/>
       <c r="AX61" s="13"/>
@@ -8853,13 +8880,13 @@
         <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>42287</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="3">
         <v>0.37361111111111112</v>
@@ -8878,7 +8905,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="12">
@@ -8904,7 +8931,7 @@
         <v>250</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X62" s="7">
         <v>80</v>
@@ -8919,20 +8946,20 @@
         <v>140.4161</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD62" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE62" s="7"/>
       <c r="AF62" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO62" s="7" t="b">
         <v>1</v>
@@ -8956,7 +8983,7 @@
         <v>35</v>
       </c>
       <c r="AV62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW62" s="13"/>
       <c r="AX62" s="13"/>
@@ -8975,13 +9002,13 @@
         <v>38</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2">
         <v>42287</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="3">
         <v>0.41458333333333336</v>
@@ -9000,7 +9027,7 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="12">
@@ -9026,7 +9053,7 @@
         <v>150</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X63" s="7">
         <v>80</v>
@@ -9041,7 +9068,7 @@
         <v>140.50120000000001</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD63" s="7" t="s">
         <v>45</v>
@@ -9049,10 +9076,10 @@
       <c r="AE63" s="7"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO63" s="7" t="b">
         <v>1</v>
@@ -9076,7 +9103,7 @@
         <v>37</v>
       </c>
       <c r="AV63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW63" s="13"/>
       <c r="AX63" s="13"/>
@@ -9095,13 +9122,13 @@
         <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2">
         <v>42287</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="3">
         <v>0.41458333333333336</v>
@@ -9120,7 +9147,7 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="12">
@@ -9146,7 +9173,7 @@
         <v>150</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X64" s="7">
         <v>80</v>
@@ -9161,7 +9188,7 @@
         <v>140.50120000000001</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD64" s="7" t="s">
         <v>45</v>
@@ -9169,10 +9196,10 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO64" s="7" t="b">
         <v>1</v>
@@ -9196,7 +9223,7 @@
         <v>35</v>
       </c>
       <c r="AV64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW64" s="13"/>
       <c r="AX64" s="13"/>
@@ -9215,13 +9242,13 @@
         <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2">
         <v>42287</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="3">
         <v>0.41458333333333336</v>
@@ -9240,7 +9267,7 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="12">
@@ -9266,7 +9293,7 @@
         <v>150</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X65" s="7">
         <v>80</v>
@@ -9281,7 +9308,7 @@
         <v>140.50120000000001</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD65" s="7" t="s">
         <v>45</v>
@@ -9289,10 +9316,10 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO65" s="7" t="b">
         <v>1</v>
@@ -9316,7 +9343,7 @@
         <v>35</v>
       </c>
       <c r="AV65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW65" s="13"/>
       <c r="AX65" s="13"/>
@@ -9335,13 +9362,13 @@
         <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2">
         <v>42287</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="3">
         <v>0.46250000000000002</v>
@@ -9360,7 +9387,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="12">
@@ -9386,7 +9413,7 @@
         <v>100</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X66" s="7">
         <v>80</v>
@@ -9401,7 +9428,7 @@
         <v>140.5564</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD66" s="7" t="s">
         <v>45</v>
@@ -9412,7 +9439,7 @@
         <v>46</v>
       </c>
       <c r="AN66" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO66" s="7" t="b">
         <v>1</v>
@@ -9436,7 +9463,7 @@
         <v>37</v>
       </c>
       <c r="AV66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW66" s="13"/>
       <c r="AX66" s="13"/>
@@ -9455,13 +9482,13 @@
         <v>38</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2">
         <v>42287</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" s="3">
         <v>0.46250000000000002</v>
@@ -9480,7 +9507,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="12">
@@ -9506,7 +9533,7 @@
         <v>100</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X67" s="7">
         <v>80</v>
@@ -9521,7 +9548,7 @@
         <v>140.5564</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD67" s="7" t="s">
         <v>45</v>
@@ -9532,7 +9559,7 @@
         <v>46</v>
       </c>
       <c r="AN67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO67" s="7" t="b">
         <v>1</v>
@@ -9556,7 +9583,7 @@
         <v>37</v>
       </c>
       <c r="AV67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW67" s="13"/>
       <c r="AX67" s="13"/>
@@ -9575,13 +9602,13 @@
         <v>38</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2">
         <v>42287</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" s="3">
         <v>0.46250000000000002</v>
@@ -9600,7 +9627,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="12">
@@ -9626,7 +9653,7 @@
         <v>100</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X68" s="7">
         <v>80</v>
@@ -9641,7 +9668,7 @@
         <v>140.5564</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD68" s="7" t="s">
         <v>45</v>
@@ -9652,7 +9679,7 @@
         <v>46</v>
       </c>
       <c r="AN68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO68" s="7" t="b">
         <v>1</v>
@@ -9676,7 +9703,7 @@
         <v>35</v>
       </c>
       <c r="AV68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW68" s="13"/>
       <c r="AX68" s="13"/>
@@ -9695,13 +9722,13 @@
         <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="2">
         <v>42287</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="3">
         <v>0.46250000000000002</v>
@@ -9720,7 +9747,7 @@
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="12">
@@ -9746,7 +9773,7 @@
         <v>100</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X69" s="7">
         <v>80</v>
@@ -9761,7 +9788,7 @@
         <v>140.5564</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD69" s="7" t="s">
         <v>45</v>
@@ -9772,7 +9799,7 @@
         <v>46</v>
       </c>
       <c r="AN69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO69" s="7" t="b">
         <v>1</v>
@@ -9796,7 +9823,7 @@
         <v>35</v>
       </c>
       <c r="AV69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW69" s="13"/>
       <c r="AX69" s="13"/>
@@ -9815,13 +9842,13 @@
         <v>38</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2">
         <v>42287</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="3">
         <v>0.52430555555555558</v>
@@ -9840,7 +9867,7 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="12">
@@ -9866,7 +9893,7 @@
         <v>50</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X70" s="7">
         <v>0</v>
@@ -9881,7 +9908,7 @@
         <v>140.64750000000001</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD70" s="7" t="s">
         <v>45</v>
@@ -9894,7 +9921,7 @@
         <v>46</v>
       </c>
       <c r="AN70" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO70" s="7" t="b">
         <v>1</v>
@@ -9918,7 +9945,7 @@
         <v>37</v>
       </c>
       <c r="AV70" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW70" s="13"/>
       <c r="AX70" s="13"/>
@@ -9937,13 +9964,13 @@
         <v>38</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2">
         <v>42287</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" s="3">
         <v>0.52430555555555558</v>
@@ -9962,7 +9989,7 @@
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="12">
@@ -9988,7 +10015,7 @@
         <v>50</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X71" s="7">
         <v>0</v>
@@ -10003,7 +10030,7 @@
         <v>140.64750000000001</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD71" s="7" t="s">
         <v>45</v>
@@ -10016,7 +10043,7 @@
         <v>46</v>
       </c>
       <c r="AN71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO71" s="7" t="b">
         <v>1</v>
@@ -10040,7 +10067,7 @@
         <v>35</v>
       </c>
       <c r="AV71" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW71" s="13"/>
       <c r="AX71" s="13"/>
@@ -10059,13 +10086,13 @@
         <v>38</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2">
         <v>42287</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" s="3">
         <v>0.52430555555555558</v>
@@ -10084,7 +10111,7 @@
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="12">
@@ -10110,7 +10137,7 @@
         <v>50</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X72" s="7">
         <v>0</v>
@@ -10125,7 +10152,7 @@
         <v>140.64750000000001</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD72" s="7" t="s">
         <v>45</v>
@@ -10138,7 +10165,7 @@
         <v>46</v>
       </c>
       <c r="AN72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO72" s="7" t="b">
         <v>1</v>
@@ -10162,7 +10189,7 @@
         <v>35</v>
       </c>
       <c r="AV72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW72" s="13"/>
       <c r="AX72" s="13"/>
@@ -10181,13 +10208,13 @@
         <v>38</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2">
         <v>42287</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="3">
         <v>0.52430555555555558</v>
@@ -10206,7 +10233,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="12">
@@ -10232,7 +10259,7 @@
         <v>50</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X73" s="7">
         <v>0</v>
@@ -10247,7 +10274,7 @@
         <v>140.64750000000001</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD73" s="7" t="s">
         <v>45</v>
@@ -10260,7 +10287,7 @@
         <v>46</v>
       </c>
       <c r="AN73" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO73" s="7" t="b">
         <v>1</v>
@@ -10284,7 +10311,7 @@
         <v>35</v>
       </c>
       <c r="AV73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW73" s="13"/>
       <c r="AX73" s="13"/>
@@ -10303,13 +10330,13 @@
         <v>38</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2">
         <v>42287</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="3">
         <v>0.55208333333333337</v>
@@ -10328,7 +10355,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="12">
@@ -10354,7 +10381,7 @@
         <v>50</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X74" s="7">
         <v>60</v>
@@ -10369,20 +10396,20 @@
         <v>140.72020000000001</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD74" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE74" s="7"/>
       <c r="AF74" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG74" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN74" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO74" s="7" t="b">
         <v>1</v>
@@ -10406,7 +10433,7 @@
         <v>37</v>
       </c>
       <c r="AV74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW74" s="13"/>
       <c r="AX74" s="13"/>
@@ -10425,13 +10452,13 @@
         <v>38</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2">
         <v>42287</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="3">
         <v>0.55208333333333337</v>
@@ -10450,7 +10477,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="12">
@@ -10476,7 +10503,7 @@
         <v>50</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X75" s="7">
         <v>60</v>
@@ -10491,20 +10518,20 @@
         <v>140.72020000000001</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD75" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE75" s="7"/>
       <c r="AF75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG75" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN75" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO75" s="7" t="b">
         <v>1</v>
@@ -10528,7 +10555,7 @@
         <v>36</v>
       </c>
       <c r="AV75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW75" s="13"/>
       <c r="AX75" s="13"/>
@@ -10547,13 +10574,13 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2">
         <v>42287</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="3">
         <v>0.55208333333333337</v>
@@ -10572,7 +10599,7 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="12">
@@ -10598,7 +10625,7 @@
         <v>50</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X76" s="7">
         <v>60</v>
@@ -10613,20 +10640,20 @@
         <v>140.72020000000001</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD76" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE76" s="7"/>
       <c r="AF76" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG76" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO76" s="7" t="b">
         <v>1</v>
@@ -10650,7 +10677,7 @@
         <v>35</v>
       </c>
       <c r="AV76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW76" s="13"/>
       <c r="AX76" s="13"/>
@@ -10669,13 +10696,13 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2">
         <v>42287</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="3">
         <v>0.55208333333333337</v>
@@ -10694,7 +10721,7 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="12">
@@ -10720,7 +10747,7 @@
         <v>50</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X77" s="7">
         <v>60</v>
@@ -10735,20 +10762,20 @@
         <v>140.72020000000001</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD77" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE77" s="7"/>
       <c r="AF77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG77" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO77" s="7" t="b">
         <v>1</v>
@@ -10772,7 +10799,7 @@
         <v>35</v>
       </c>
       <c r="AV77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW77" s="13"/>
       <c r="AX77" s="13"/>
@@ -10791,13 +10818,13 @@
         <v>38</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2">
         <v>42287</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" s="3">
         <v>0.58958333333333335</v>
@@ -10816,7 +10843,7 @@
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="12">
@@ -10830,7 +10857,7 @@
         <v>47</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>18</v>
@@ -10842,7 +10869,7 @@
         <v>50</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X78" s="7">
         <v>80</v>
@@ -10857,10 +10884,10 @@
         <v>140.85470000000001</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD78" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE78" s="7"/>
       <c r="AF78" s="1" t="s">
@@ -10870,7 +10897,7 @@
         <v>46</v>
       </c>
       <c r="AN78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO78" s="7" t="b">
         <v>1</v>
@@ -10894,7 +10921,7 @@
         <v>35</v>
       </c>
       <c r="AV78" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW78" s="13"/>
       <c r="AX78" s="13"/>
@@ -10913,13 +10940,13 @@
         <v>38</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2">
         <v>42287</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E79" s="3">
         <v>0.58958333333333335</v>
@@ -10938,7 +10965,7 @@
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="12">
@@ -10952,7 +10979,7 @@
         <v>47</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>18</v>
@@ -10964,7 +10991,7 @@
         <v>50</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X79" s="7">
         <v>80</v>
@@ -10979,10 +11006,10 @@
         <v>140.85470000000001</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD79" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE79" s="7"/>
       <c r="AF79" s="1" t="s">
@@ -10992,7 +11019,7 @@
         <v>46</v>
       </c>
       <c r="AN79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO79" s="7" t="b">
         <v>1</v>
@@ -11016,7 +11043,7 @@
         <v>35</v>
       </c>
       <c r="AV79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW79" s="13"/>
       <c r="AX79" s="13"/>
@@ -11035,13 +11062,13 @@
         <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2">
         <v>42287</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="3">
         <v>0.60763888888888884</v>
@@ -11060,7 +11087,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="12">
@@ -11074,7 +11101,7 @@
         <v>47</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>18</v>
@@ -11099,20 +11126,20 @@
         <v>140.82640000000001</v>
       </c>
       <c r="AC80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD80" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AD80" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AE80" s="7"/>
       <c r="AF80" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG80" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN80" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO80" s="7" t="b">
         <v>1</v>
@@ -11136,7 +11163,7 @@
         <v>37</v>
       </c>
       <c r="AV80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW80" s="13"/>
       <c r="AX80" s="13"/>
@@ -11155,13 +11182,13 @@
         <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2">
         <v>42287</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81" s="3">
         <v>0.60763888888888884</v>
@@ -11180,7 +11207,7 @@
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="12">
@@ -11194,7 +11221,7 @@
         <v>47</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>18</v>
@@ -11221,20 +11248,20 @@
         <v>140.82640000000001</v>
       </c>
       <c r="AC81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD81" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AD81" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AE81" s="7"/>
       <c r="AF81" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG81" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO81" s="7" t="b">
         <v>1</v>
@@ -11258,7 +11285,7 @@
         <v>35</v>
       </c>
       <c r="AV81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW81" s="13"/>
       <c r="AX81" s="13"/>
@@ -11277,13 +11304,13 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2">
         <v>42287</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82" s="3">
         <v>0.60763888888888884</v>
@@ -11302,7 +11329,7 @@
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="12">
@@ -11316,7 +11343,7 @@
         <v>47</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>18</v>
@@ -11343,20 +11370,20 @@
         <v>140.82640000000001</v>
       </c>
       <c r="AC82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD82" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="AD82" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="AE82" s="7"/>
       <c r="AF82" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG82" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO82" s="7" t="b">
         <v>1</v>
@@ -11380,7 +11407,7 @@
         <v>35</v>
       </c>
       <c r="AV82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW82" s="13"/>
       <c r="AX82" s="13"/>
@@ -11399,13 +11426,13 @@
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2">
         <v>42287</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E83" s="3">
         <v>0.64583333333333337</v>
@@ -11424,7 +11451,7 @@
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="12">
@@ -11450,7 +11477,7 @@
         <v>100</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X83" s="7">
         <v>90</v>
@@ -11465,10 +11492,10 @@
         <v>140.8066</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD83" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE83" s="7"/>
       <c r="AF83" s="1"/>
@@ -11476,7 +11503,7 @@
         <v>46</v>
       </c>
       <c r="AN83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO83" s="7" t="b">
         <v>1</v>
@@ -11500,7 +11527,7 @@
         <v>35</v>
       </c>
       <c r="AV83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW83" s="13"/>
       <c r="AX83" s="13"/>
@@ -11519,13 +11546,13 @@
         <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2">
         <v>42287</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" s="3">
         <v>0.64583333333333337</v>
@@ -11544,7 +11571,7 @@
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="12">
@@ -11570,7 +11597,7 @@
         <v>100</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X84" s="7">
         <v>90</v>
@@ -11585,10 +11612,10 @@
         <v>140.8066</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD84" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE84" s="7"/>
       <c r="AF84" s="1"/>
@@ -11596,7 +11623,7 @@
         <v>46</v>
       </c>
       <c r="AN84" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO84" s="7" t="b">
         <v>1</v>
@@ -11620,7 +11647,7 @@
         <v>35</v>
       </c>
       <c r="AV84" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW84" s="13"/>
       <c r="AX84" s="13"/>
@@ -11639,13 +11666,13 @@
         <v>38</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2">
         <v>42287</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E85" s="3">
         <v>0.64583333333333337</v>
@@ -11664,7 +11691,7 @@
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
       <c r="M85" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="12">
@@ -11690,7 +11717,7 @@
         <v>100</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X85" s="7">
         <v>90</v>
@@ -11705,10 +11732,10 @@
         <v>140.8066</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD85" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE85" s="7"/>
       <c r="AF85" s="1"/>
@@ -11716,7 +11743,7 @@
         <v>46</v>
       </c>
       <c r="AN85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO85" s="7" t="b">
         <v>1</v>
@@ -11740,7 +11767,7 @@
         <v>35</v>
       </c>
       <c r="AV85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW85" s="13"/>
       <c r="AX85" s="13"/>
@@ -11759,13 +11786,13 @@
         <v>38</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2">
         <v>42288</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" s="3">
         <v>0.31527777777777777</v>
@@ -11784,7 +11811,7 @@
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
       <c r="M86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="12">
@@ -11810,7 +11837,7 @@
         <v>200</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X86" s="7">
         <v>80</v>
@@ -11825,7 +11852,7 @@
         <v>140.79910000000001</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD86" s="7" t="s">
         <v>45</v>
@@ -11838,7 +11865,7 @@
         <v>46</v>
       </c>
       <c r="AN86" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO86" s="7" t="b">
         <v>1</v>
@@ -11862,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="AV86" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW86" s="13"/>
       <c r="AX86" s="13"/>
@@ -11881,13 +11908,13 @@
         <v>38</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2">
         <v>42288</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E87" s="3">
         <v>0.31527777777777777</v>
@@ -11906,7 +11933,7 @@
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
       <c r="M87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="12">
@@ -11932,7 +11959,7 @@
         <v>200</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X87" s="7">
         <v>80</v>
@@ -11947,7 +11974,7 @@
         <v>140.79910000000001</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD87" s="7" t="s">
         <v>45</v>
@@ -11960,7 +11987,7 @@
         <v>46</v>
       </c>
       <c r="AN87" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO87" s="7" t="b">
         <v>1</v>
@@ -11984,7 +12011,7 @@
         <v>35</v>
       </c>
       <c r="AV87" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW87" s="13"/>
       <c r="AX87" s="13"/>
@@ -12003,13 +12030,13 @@
         <v>38</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2">
         <v>42288</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88" s="3">
         <v>0.31527777777777777</v>
@@ -12028,7 +12055,7 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="12">
@@ -12054,7 +12081,7 @@
         <v>200</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X88" s="7">
         <v>80</v>
@@ -12069,7 +12096,7 @@
         <v>140.79910000000001</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD88" s="7" t="s">
         <v>45</v>
@@ -12082,7 +12109,7 @@
         <v>46</v>
       </c>
       <c r="AN88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO88" s="7" t="b">
         <v>1</v>
@@ -12106,7 +12133,7 @@
         <v>35</v>
       </c>
       <c r="AV88" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW88" s="13"/>
       <c r="AX88" s="13"/>
@@ -12125,13 +12152,13 @@
         <v>38</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2">
         <v>42288</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89" s="3">
         <v>0.34722222222222221</v>
@@ -12150,7 +12177,7 @@
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
       <c r="M89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="12">
@@ -12176,7 +12203,7 @@
         <v>200</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X89" s="7">
         <v>50</v>
@@ -12191,20 +12218,20 @@
         <v>140.71809999999999</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD89" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE89" s="7"/>
       <c r="AF89" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG89" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN89" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO89" s="7" t="b">
         <v>0</v>
@@ -12228,7 +12255,7 @@
         <v>37</v>
       </c>
       <c r="AV89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW89" s="13"/>
       <c r="AX89" s="13"/>
@@ -12247,13 +12274,13 @@
         <v>38</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2">
         <v>42288</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90" s="3">
         <v>0.34722222222222221</v>
@@ -12272,7 +12299,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="12">
@@ -12298,7 +12325,7 @@
         <v>200</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X90" s="7">
         <v>50</v>
@@ -12313,20 +12340,20 @@
         <v>140.71809999999999</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD90" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE90" s="7"/>
       <c r="AF90" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG90" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN90" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO90" s="7" t="b">
         <v>1</v>
@@ -12350,7 +12377,7 @@
         <v>35</v>
       </c>
       <c r="AV90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW90" s="13"/>
       <c r="AX90" s="13"/>
@@ -12369,13 +12396,13 @@
         <v>38</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2">
         <v>42288</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="3">
         <v>0.34722222222222221</v>
@@ -12394,7 +12421,7 @@
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
       <c r="M91" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="12">
@@ -12420,7 +12447,7 @@
         <v>200</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X91" s="7">
         <v>50</v>
@@ -12435,20 +12462,20 @@
         <v>140.71809999999999</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD91" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE91" s="7"/>
       <c r="AF91" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG91" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN91" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO91" s="7" t="b">
         <v>1</v>
@@ -12472,7 +12499,7 @@
         <v>35</v>
       </c>
       <c r="AV91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW91" s="13"/>
       <c r="AX91" s="13"/>
@@ -12491,13 +12518,13 @@
         <v>38</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2">
         <v>42288</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E92" s="3">
         <v>0.34722222222222221</v>
@@ -12516,7 +12543,7 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="12">
@@ -12542,7 +12569,7 @@
         <v>200</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X92" s="7">
         <v>50</v>
@@ -12557,20 +12584,20 @@
         <v>140.71809999999999</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD92" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE92" s="7"/>
       <c r="AF92" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG92" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN92" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO92" s="7" t="b">
         <v>1</v>
@@ -12594,7 +12621,7 @@
         <v>35</v>
       </c>
       <c r="AV92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW92" s="13"/>
       <c r="AX92" s="13"/>
@@ -12613,13 +12640,13 @@
         <v>38</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2">
         <v>42288</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E93" s="3">
         <v>0.40694444444444444</v>
@@ -12638,7 +12665,7 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="12">
@@ -12664,7 +12691,7 @@
         <v>150</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X93" s="7">
         <v>80</v>
@@ -12679,10 +12706,10 @@
         <v>140.63239999999999</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD93" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE93" s="7"/>
       <c r="AF93" s="1"/>
@@ -12690,7 +12717,7 @@
         <v>46</v>
       </c>
       <c r="AN93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO93" s="7" t="b">
         <v>1</v>
@@ -12714,7 +12741,7 @@
         <v>35</v>
       </c>
       <c r="AV93" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW93" s="13"/>
       <c r="AX93" s="13"/>
@@ -12733,13 +12760,13 @@
         <v>38</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2">
         <v>42288</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E94" s="3">
         <v>0.40694444444444444</v>
@@ -12758,7 +12785,7 @@
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="12">
@@ -12784,7 +12811,7 @@
         <v>150</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X94" s="7">
         <v>80</v>
@@ -12799,10 +12826,10 @@
         <v>140.63239999999999</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD94" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE94" s="7"/>
       <c r="AF94" s="1"/>
@@ -12810,7 +12837,7 @@
         <v>46</v>
       </c>
       <c r="AN94" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO94" s="7" t="b">
         <v>1</v>
@@ -12834,7 +12861,7 @@
         <v>35</v>
       </c>
       <c r="AV94" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW94" s="13"/>
       <c r="AX94" s="13"/>
@@ -12853,13 +12880,13 @@
         <v>38</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2">
         <v>42288</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E95" s="3">
         <v>0.40694444444444444</v>
@@ -12878,7 +12905,7 @@
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="12">
@@ -12904,7 +12931,7 @@
         <v>150</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X95" s="7">
         <v>80</v>
@@ -12919,10 +12946,10 @@
         <v>140.63239999999999</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD95" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE95" s="7"/>
       <c r="AF95" s="1"/>
@@ -12930,7 +12957,7 @@
         <v>46</v>
       </c>
       <c r="AN95" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO95" s="7" t="b">
         <v>1</v>
@@ -12954,7 +12981,7 @@
         <v>35</v>
       </c>
       <c r="AV95" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW95" s="13"/>
       <c r="AX95" s="13"/>
@@ -12973,13 +13000,13 @@
         <v>38</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2">
         <v>42288</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E96" s="3">
         <v>0.40694444444444444</v>
@@ -12998,7 +13025,7 @@
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="12">
@@ -13024,7 +13051,7 @@
         <v>150</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X96" s="7">
         <v>80</v>
@@ -13039,10 +13066,10 @@
         <v>140.63239999999999</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD96" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE96" s="7"/>
       <c r="AF96" s="1"/>
@@ -13050,7 +13077,7 @@
         <v>46</v>
       </c>
       <c r="AN96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO96" s="7" t="b">
         <v>1</v>
@@ -13074,7 +13101,7 @@
         <v>35</v>
       </c>
       <c r="AV96" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW96" s="13"/>
       <c r="AX96" s="13"/>
@@ -13093,13 +13120,13 @@
         <v>38</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C97" s="2">
         <v>42288</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E97" s="3">
         <v>0.45416666666666666</v>
@@ -13118,7 +13145,7 @@
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="12">
@@ -13144,7 +13171,7 @@
         <v>70</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X97" s="7">
         <v>70</v>
@@ -13159,20 +13186,20 @@
         <v>140.5821</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD97" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE97" s="7"/>
       <c r="AF97" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG97" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN97" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO97" s="7" t="b">
         <v>1</v>
@@ -13194,7 +13221,7 @@
         <v>37</v>
       </c>
       <c r="AV97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW97" s="13"/>
       <c r="AX97" s="13"/>
@@ -13213,13 +13240,13 @@
         <v>38</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="2">
         <v>42288</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" s="3">
         <v>0.45416666666666666</v>
@@ -13238,7 +13265,7 @@
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
       <c r="M98" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="12">
@@ -13264,7 +13291,7 @@
         <v>70</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X98" s="7">
         <v>70</v>
@@ -13279,20 +13306,20 @@
         <v>140.5821</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD98" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE98" s="7"/>
       <c r="AF98" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG98" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN98" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO98" s="7" t="b">
         <v>1</v>
@@ -13316,7 +13343,7 @@
         <v>35</v>
       </c>
       <c r="AV98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW98" s="13"/>
       <c r="AX98" s="13"/>
@@ -13335,13 +13362,13 @@
         <v>38</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="2">
         <v>42288</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E99" s="3">
         <v>0.45416666666666666</v>
@@ -13360,7 +13387,7 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="12">
@@ -13386,7 +13413,7 @@
         <v>70</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X99" s="7">
         <v>70</v>
@@ -13401,20 +13428,20 @@
         <v>140.5821</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD99" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE99" s="7"/>
       <c r="AF99" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG99" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN99" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO99" s="7" t="b">
         <v>1</v>
@@ -13438,7 +13465,7 @@
         <v>35</v>
       </c>
       <c r="AV99" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW99" s="13"/>
       <c r="AX99" s="13"/>
@@ -13457,13 +13484,13 @@
         <v>38</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="2">
         <v>42288</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" s="3">
         <v>0.45416666666666666</v>
@@ -13482,7 +13509,7 @@
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
       <c r="M100" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="12">
@@ -13508,7 +13535,7 @@
         <v>70</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X100" s="7">
         <v>70</v>
@@ -13523,20 +13550,20 @@
         <v>140.5821</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD100" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE100" s="7"/>
       <c r="AF100" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG100" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO100" s="7" t="b">
         <v>1</v>
@@ -13560,7 +13587,7 @@
         <v>35</v>
       </c>
       <c r="AV100" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW100" s="13"/>
       <c r="AX100" s="13"/>
@@ -13579,13 +13606,13 @@
         <v>38</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2">
         <v>42288</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="3">
         <v>0.55902777777777779</v>
@@ -13604,7 +13631,7 @@
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
       <c r="M101" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="12">
@@ -13630,7 +13657,7 @@
         <v>50</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X101" s="7">
         <v>60</v>
@@ -13645,20 +13672,20 @@
         <v>140.6156</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD101" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE101" s="7"/>
       <c r="AF101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG101" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN101" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO101" s="7" t="b">
         <v>0</v>
@@ -13682,7 +13709,7 @@
         <v>37</v>
       </c>
       <c r="AV101" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW101" s="13"/>
       <c r="AX101" s="13"/>
@@ -13701,13 +13728,13 @@
         <v>38</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2">
         <v>42288</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E102" s="3">
         <v>0.55902777777777779</v>
@@ -13726,7 +13753,7 @@
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
       <c r="M102" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="12">
@@ -13740,7 +13767,7 @@
         <v>47</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>48</v>
@@ -13752,7 +13779,7 @@
         <v>50</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X102" s="7">
         <v>60</v>
@@ -13767,20 +13794,20 @@
         <v>140.6156</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD102" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE102" s="7"/>
       <c r="AF102" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG102" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO102" s="7" t="b">
         <v>1</v>
@@ -13804,7 +13831,7 @@
         <v>35</v>
       </c>
       <c r="AV102" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW102" s="13"/>
       <c r="AX102" s="13"/>
@@ -13823,13 +13850,13 @@
         <v>38</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2">
         <v>42288</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E103" s="3">
         <v>0.55902777777777779</v>
@@ -13848,7 +13875,7 @@
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
       <c r="M103" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="12">
@@ -13862,7 +13889,7 @@
         <v>47</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>48</v>
@@ -13874,7 +13901,7 @@
         <v>50</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X103" s="7">
         <v>60</v>
@@ -13889,20 +13916,20 @@
         <v>140.6156</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD103" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE103" s="7"/>
       <c r="AF103" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG103" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN103" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO103" s="7" t="b">
         <v>1</v>
@@ -13926,7 +13953,7 @@
         <v>35</v>
       </c>
       <c r="AV103" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW103" s="13"/>
       <c r="AX103" s="13"/>
@@ -13951,7 +13978,7 @@
         <v>42289</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E104" s="3">
         <v>0.43055555555555558</v>
@@ -13970,7 +13997,7 @@
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
       <c r="M104" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="12">
@@ -13996,7 +14023,7 @@
         <v>100</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="X104" s="7">
         <v>80</v>
@@ -14011,20 +14038,20 @@
         <v>140.4171</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD104" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE104" s="7"/>
       <c r="AF104" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG104" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN104" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO104" s="7" t="b">
         <v>1</v>
@@ -14048,7 +14075,7 @@
         <v>35</v>
       </c>
       <c r="AV104" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW104" s="13"/>
       <c r="AX104" s="13"/>
@@ -14073,7 +14100,7 @@
         <v>42289</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E105" s="3">
         <v>0.45624999999999999</v>
@@ -14092,7 +14119,7 @@
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
       <c r="M105" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="12">
@@ -14118,7 +14145,7 @@
         <v>80</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X105" s="7">
         <v>60</v>
@@ -14133,20 +14160,20 @@
         <v>140.3314</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD105" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE105" s="7"/>
       <c r="AF105" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG105" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO105" s="7" t="b">
         <v>1</v>
@@ -14170,7 +14197,7 @@
         <v>35</v>
       </c>
       <c r="AV105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW105" s="13"/>
       <c r="AX105" s="13"/>
@@ -14195,7 +14222,7 @@
         <v>42289</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E106" s="3">
         <v>0.4861111111111111</v>
@@ -14214,7 +14241,7 @@
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
       <c r="M106" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="12">
@@ -14225,7 +14252,7 @@
       </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S106" s="1" t="s">
         <v>15</v>
@@ -14240,7 +14267,7 @@
         <v>60</v>
       </c>
       <c r="W106" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X106" s="7">
         <v>40</v>
@@ -14255,20 +14282,20 @@
         <v>140.2552</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AD106" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE106" s="7"/>
       <c r="AF106" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG106" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO106" s="7" t="b">
         <v>0</v>
@@ -14292,7 +14319,7 @@
         <v>35</v>
       </c>
       <c r="AV106" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW106" s="13"/>
       <c r="AX106" s="13"/>
@@ -14317,7 +14344,7 @@
         <v>42289</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E107" s="3">
         <v>0.4861111111111111</v>
@@ -14336,7 +14363,7 @@
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
       <c r="M107" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="12">
@@ -14347,7 +14374,7 @@
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>15</v>
@@ -14362,7 +14389,7 @@
         <v>60</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X107" s="7">
         <v>40</v>
@@ -14377,20 +14404,20 @@
         <v>140.2552</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AD107" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE107" s="7"/>
       <c r="AF107" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG107" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN107" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO107" s="7" t="b">
         <v>1</v>
@@ -14414,7 +14441,7 @@
         <v>35</v>
       </c>
       <c r="AV107" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW107" s="13"/>
       <c r="AX107" s="13"/>
@@ -14439,7 +14466,7 @@
         <v>42289</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E108" s="3">
         <v>0.50277777777777777</v>
@@ -14458,7 +14485,7 @@
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="12">
@@ -14469,7 +14496,7 @@
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S108" s="1" t="s">
         <v>15</v>
@@ -14484,7 +14511,7 @@
         <v>50</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X108" s="7">
         <v>0</v>
@@ -14499,10 +14526,10 @@
         <v>140.17099999999999</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD108" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE108" s="7"/>
       <c r="AF108" s="1" t="s">
@@ -14512,7 +14539,7 @@
         <v>46</v>
       </c>
       <c r="AN108" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO108" s="7" t="b">
         <v>1</v>
@@ -14536,7 +14563,7 @@
         <v>35</v>
       </c>
       <c r="AV108" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW108" s="13"/>
       <c r="AX108" s="13"/>
@@ -14561,7 +14588,7 @@
         <v>42289</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E109" s="3">
         <v>0.50277777777777777</v>
@@ -14580,7 +14607,7 @@
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
       <c r="M109" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="12">
@@ -14591,7 +14618,7 @@
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S109" s="1" t="s">
         <v>15</v>
@@ -14606,7 +14633,7 @@
         <v>50</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X109" s="7">
         <v>0</v>
@@ -14621,10 +14648,10 @@
         <v>140.17099999999999</v>
       </c>
       <c r="AC109" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD109" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE109" s="7"/>
       <c r="AF109" s="1" t="s">
@@ -14634,7 +14661,7 @@
         <v>46</v>
       </c>
       <c r="AN109" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO109" s="7" t="b">
         <v>1</v>
@@ -14658,7 +14685,7 @@
         <v>35</v>
       </c>
       <c r="AV109" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW109" s="13"/>
       <c r="AX109" s="13"/>
@@ -14683,7 +14710,7 @@
         <v>42289</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E110" s="3">
         <v>0.50277777777777777</v>
@@ -14702,7 +14729,7 @@
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
       <c r="M110" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="12">
@@ -14713,7 +14740,7 @@
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S110" s="1" t="s">
         <v>15</v>
@@ -14728,7 +14755,7 @@
         <v>50</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X110" s="7">
         <v>0</v>
@@ -14743,10 +14770,10 @@
         <v>140.17099999999999</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD110" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE110" s="7"/>
       <c r="AF110" s="1" t="s">
@@ -14756,7 +14783,7 @@
         <v>46</v>
       </c>
       <c r="AN110" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO110" s="7" t="b">
         <v>1</v>
@@ -14780,7 +14807,7 @@
         <v>35</v>
       </c>
       <c r="AV110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW110" s="13"/>
       <c r="AX110" s="13"/>
@@ -14805,7 +14832,7 @@
         <v>42289</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E111" s="3">
         <v>0.52430555555555558</v>
@@ -14824,7 +14851,7 @@
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="12">
@@ -14833,7 +14860,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>15</v>
@@ -14848,7 +14875,7 @@
         <v>50</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X111" s="7">
         <v>0</v>
@@ -14863,20 +14890,20 @@
         <v>140.12569999999999</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD111" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE111" s="7"/>
       <c r="AF111" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG111" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN111" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO111" s="7" t="b">
         <v>1</v>
@@ -14900,7 +14927,7 @@
         <v>35</v>
       </c>
       <c r="AV111" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW111" s="13"/>
       <c r="AX111" s="13"/>
@@ -14925,7 +14952,7 @@
         <v>42289</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E112" s="3">
         <v>0.52430555555555558</v>
@@ -14944,7 +14971,7 @@
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
       <c r="M112" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="12">
@@ -14953,7 +14980,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>15</v>
@@ -14968,7 +14995,7 @@
         <v>50</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X112" s="7">
         <v>0</v>
@@ -14983,20 +15010,20 @@
         <v>140.12569999999999</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD112" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE112" s="7"/>
       <c r="AF112" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG112" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN112" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO112" s="7" t="b">
         <v>1</v>
@@ -15020,7 +15047,7 @@
         <v>35</v>
       </c>
       <c r="AV112" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW112" s="13"/>
       <c r="AX112" s="13"/>
@@ -15045,7 +15072,7 @@
         <v>42289</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E113" s="3">
         <v>0.52430555555555558</v>
@@ -15064,7 +15091,7 @@
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
       <c r="M113" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="12">
@@ -15073,7 +15100,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S113" s="1" t="s">
         <v>15</v>
@@ -15088,7 +15115,7 @@
         <v>50</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X113" s="7">
         <v>0</v>
@@ -15103,20 +15130,20 @@
         <v>140.12569999999999</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD113" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE113" s="7"/>
       <c r="AF113" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG113" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN113" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO113" s="7" t="b">
         <v>1</v>
@@ -15140,7 +15167,7 @@
         <v>35</v>
       </c>
       <c r="AV113" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW113" s="13"/>
       <c r="AX113" s="13"/>
@@ -15165,7 +15192,7 @@
         <v>42289</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E114" s="3">
         <v>0.52430555555555558</v>
@@ -15184,7 +15211,7 @@
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
       <c r="M114" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="12">
@@ -15193,7 +15220,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S114" s="1" t="s">
         <v>15</v>
@@ -15208,7 +15235,7 @@
         <v>50</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X114" s="7">
         <v>0</v>
@@ -15223,20 +15250,20 @@
         <v>140.12569999999999</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AD114" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE114" s="7"/>
       <c r="AF114" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG114" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN114" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO114" s="7" t="b">
         <v>1</v>
@@ -15260,7 +15287,7 @@
         <v>35</v>
       </c>
       <c r="AV114" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW114" s="13"/>
       <c r="AX114" s="13"/>
@@ -15285,7 +15312,7 @@
         <v>42289</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E115" s="3">
         <v>0.54374999999999996</v>
@@ -15304,7 +15331,7 @@
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
       <c r="M115" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="12">
@@ -15315,7 +15342,7 @@
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>15</v>
@@ -15330,7 +15357,7 @@
         <v>50</v>
       </c>
       <c r="W115" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X115" s="7">
         <v>0</v>
@@ -15345,10 +15372,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD115" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE115" s="7"/>
       <c r="AF115" s="1" t="s">
@@ -15358,7 +15385,7 @@
         <v>46</v>
       </c>
       <c r="AN115" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO115" s="7" t="b">
         <v>1</v>
@@ -15382,7 +15409,7 @@
         <v>37</v>
       </c>
       <c r="AV115" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW115" s="13"/>
       <c r="AX115" s="13"/>
@@ -15407,7 +15434,7 @@
         <v>42289</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E116" s="3">
         <v>0.54374999999999996</v>
@@ -15426,7 +15453,7 @@
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
       <c r="M116" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="12">
@@ -15437,7 +15464,7 @@
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>15</v>
@@ -15452,7 +15479,7 @@
         <v>50</v>
       </c>
       <c r="W116" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X116" s="7">
         <v>0</v>
@@ -15467,10 +15494,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD116" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE116" s="7"/>
       <c r="AF116" s="1" t="s">
@@ -15480,7 +15507,7 @@
         <v>46</v>
       </c>
       <c r="AN116" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO116" s="7" t="b">
         <v>1</v>
@@ -15504,7 +15531,7 @@
         <v>35</v>
       </c>
       <c r="AV116" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW116" s="13"/>
       <c r="AX116" s="13"/>
@@ -15529,7 +15556,7 @@
         <v>42289</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E117" s="3">
         <v>0.54374999999999996</v>
@@ -15548,7 +15575,7 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="12">
@@ -15559,7 +15586,7 @@
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>15</v>
@@ -15574,7 +15601,7 @@
         <v>50</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X117" s="7">
         <v>0</v>
@@ -15589,10 +15616,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD117" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE117" s="7"/>
       <c r="AF117" s="1" t="s">
@@ -15602,7 +15629,7 @@
         <v>46</v>
       </c>
       <c r="AN117" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO117" s="7" t="b">
         <v>1</v>
@@ -15626,7 +15653,7 @@
         <v>35</v>
       </c>
       <c r="AV117" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW117" s="13"/>
       <c r="AX117" s="13"/>
@@ -15651,7 +15678,7 @@
         <v>42289</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E118" s="3">
         <v>0.54374999999999996</v>
@@ -15670,7 +15697,7 @@
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
       <c r="M118" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="12">
@@ -15681,7 +15708,7 @@
       </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>15</v>
@@ -15696,7 +15723,7 @@
         <v>50</v>
       </c>
       <c r="W118" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X118" s="7">
         <v>0</v>
@@ -15711,10 +15738,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC118" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD118" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE118" s="7"/>
       <c r="AF118" s="1" t="s">
@@ -15724,7 +15751,7 @@
         <v>46</v>
       </c>
       <c r="AN118" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO118" s="7" t="b">
         <v>1</v>
@@ -15748,7 +15775,7 @@
         <v>35</v>
       </c>
       <c r="AV118" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW118" s="13"/>
       <c r="AX118" s="13"/>
@@ -15773,7 +15800,7 @@
         <v>42289</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E119" s="3">
         <v>0.54374999999999996</v>
@@ -15792,7 +15819,7 @@
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
       <c r="M119" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="12">
@@ -15803,7 +15830,7 @@
       </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>15</v>
@@ -15818,7 +15845,7 @@
         <v>50</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X119" s="7">
         <v>0</v>
@@ -15833,10 +15860,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC119" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD119" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE119" s="7"/>
       <c r="AF119" s="1" t="s">
@@ -15846,7 +15873,7 @@
         <v>46</v>
       </c>
       <c r="AN119" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO119" s="7" t="b">
         <v>1</v>
@@ -15870,7 +15897,7 @@
         <v>35</v>
       </c>
       <c r="AV119" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW119" s="13"/>
       <c r="AX119" s="13"/>
@@ -15895,7 +15922,7 @@
         <v>42289</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E120" s="3">
         <v>0.54374999999999996</v>
@@ -15914,7 +15941,7 @@
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
       <c r="M120" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="12">
@@ -15925,7 +15952,7 @@
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>15</v>
@@ -15940,7 +15967,7 @@
         <v>50</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X120" s="7">
         <v>0</v>
@@ -15955,10 +15982,10 @@
         <v>140.08430000000001</v>
       </c>
       <c r="AC120" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD120" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE120" s="7"/>
       <c r="AF120" s="1" t="s">
@@ -15968,7 +15995,7 @@
         <v>46</v>
       </c>
       <c r="AN120" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO120" s="7" t="b">
         <v>1</v>
@@ -15992,7 +16019,7 @@
         <v>35</v>
       </c>
       <c r="AV120" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW120" s="13"/>
       <c r="AX120" s="13"/>
@@ -16017,7 +16044,7 @@
         <v>42289</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E121" s="3">
         <v>0.40416666666666667</v>
@@ -16036,7 +16063,7 @@
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
       <c r="M121" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="12">
@@ -16062,7 +16089,7 @@
         <v>200</v>
       </c>
       <c r="W121" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="X121" s="7">
         <v>80</v>
@@ -16077,10 +16104,10 @@
         <v>140.49879999999999</v>
       </c>
       <c r="AC121" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD121" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE121" s="7"/>
       <c r="AF121" s="1" t="s">
@@ -16090,7 +16117,7 @@
         <v>46</v>
       </c>
       <c r="AN121" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO121" s="7" t="b">
         <v>1</v>
@@ -16114,7 +16141,7 @@
         <v>35</v>
       </c>
       <c r="AV121" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW121" s="13"/>
       <c r="AX121" s="13"/>
@@ -16139,7 +16166,7 @@
         <v>42289</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E122" s="3">
         <v>0.40416666666666667</v>
@@ -16158,7 +16185,7 @@
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="12">
@@ -16184,7 +16211,7 @@
         <v>200</v>
       </c>
       <c r="W122" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="X122" s="7">
         <v>80</v>
@@ -16199,10 +16226,10 @@
         <v>140.49879999999999</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD122" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE122" s="7"/>
       <c r="AF122" s="1" t="s">
@@ -16212,7 +16239,7 @@
         <v>46</v>
       </c>
       <c r="AN122" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO122" s="7" t="b">
         <v>1</v>
@@ -16236,7 +16263,7 @@
         <v>35</v>
       </c>
       <c r="AV122" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW122" s="13"/>
       <c r="AX122" s="13"/>
@@ -16261,7 +16288,7 @@
         <v>42289</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E123" s="3">
         <v>0.34722222222222221</v>
@@ -16280,7 +16307,7 @@
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
       <c r="M123" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="12">
@@ -16306,7 +16333,7 @@
         <v>500</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X123" s="7">
         <v>0</v>
@@ -16321,20 +16348,20 @@
         <v>140.6806</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD123" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE123" s="7"/>
       <c r="AF123" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG123" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO123" s="7" t="b">
         <v>0</v>
@@ -16358,7 +16385,7 @@
         <v>35</v>
       </c>
       <c r="AV123" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW123" s="13"/>
       <c r="AX123" s="13"/>
@@ -16383,7 +16410,7 @@
         <v>42289</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E124" s="3">
         <v>0.34722222222222221</v>
@@ -16402,7 +16429,7 @@
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
       <c r="M124" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="12">
@@ -16428,7 +16455,7 @@
         <v>500</v>
       </c>
       <c r="W124" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X124" s="7">
         <v>0</v>
@@ -16443,20 +16470,20 @@
         <v>140.6806</v>
       </c>
       <c r="AC124" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD124" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE124" s="7"/>
       <c r="AF124" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG124" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN124" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO124" s="7" t="b">
         <v>0</v>
@@ -16480,7 +16507,7 @@
         <v>35</v>
       </c>
       <c r="AV124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW124" s="13"/>
       <c r="AX124" s="13"/>
@@ -16505,7 +16532,7 @@
         <v>42289</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E125" s="3">
         <v>0.34722222222222221</v>
@@ -16524,7 +16551,7 @@
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
       <c r="M125" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="12">
@@ -16550,7 +16577,7 @@
         <v>500</v>
       </c>
       <c r="W125" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X125" s="7">
         <v>0</v>
@@ -16565,20 +16592,20 @@
         <v>140.6806</v>
       </c>
       <c r="AC125" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD125" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE125" s="7"/>
       <c r="AF125" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG125" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO125" s="7" t="b">
         <v>1</v>
@@ -16602,7 +16629,7 @@
         <v>35</v>
       </c>
       <c r="AV125" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW125" s="13"/>
       <c r="AX125" s="13"/>
@@ -16627,7 +16654,7 @@
         <v>42289</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E126" s="3">
         <v>0.34722222222222221</v>
@@ -16646,7 +16673,7 @@
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
       <c r="M126" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="12">
@@ -16672,7 +16699,7 @@
         <v>500</v>
       </c>
       <c r="W126" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X126" s="7">
         <v>0</v>
@@ -16687,20 +16714,20 @@
         <v>140.6806</v>
       </c>
       <c r="AC126" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD126" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE126" s="7"/>
       <c r="AF126" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG126" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN126" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO126" s="7" t="b">
         <v>1</v>
@@ -16724,7 +16751,7 @@
         <v>35</v>
       </c>
       <c r="AV126" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW126" s="13"/>
       <c r="AX126" s="13"/>
@@ -16749,7 +16776,7 @@
         <v>42289</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E127" s="3">
         <v>0.37708333333333333</v>
@@ -16768,7 +16795,7 @@
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
       <c r="M127" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="12">
@@ -16794,7 +16821,7 @@
         <v>250</v>
       </c>
       <c r="W127" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X127" s="7">
         <v>80</v>
@@ -16809,20 +16836,20 @@
         <v>140.59270000000001</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AD127" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE127" s="7"/>
       <c r="AF127" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG127" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN127" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO127" s="7" t="b">
         <v>1</v>
@@ -16846,7 +16873,7 @@
         <v>35</v>
       </c>
       <c r="AV127" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW127" s="13"/>
       <c r="AX127" s="13"/>
@@ -16871,7 +16898,7 @@
         <v>42289</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E128" s="3">
         <v>0.37708333333333333</v>
@@ -16890,7 +16917,7 @@
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
       <c r="M128" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="12">
@@ -16916,7 +16943,7 @@
         <v>250</v>
       </c>
       <c r="W128" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X128" s="7">
         <v>80</v>
@@ -16931,20 +16958,20 @@
         <v>140.59270000000001</v>
       </c>
       <c r="AC128" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AD128" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE128" s="7"/>
       <c r="AF128" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG128" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN128" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AO128" s="7" t="b">
         <v>1</v>
@@ -16968,7 +16995,7 @@
         <v>37</v>
       </c>
       <c r="AV128" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW128" s="13"/>
       <c r="AX128" s="13"/>
@@ -16987,13 +17014,13 @@
         <v>38</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2">
         <v>42287</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E129" s="3">
         <v>0.58958333333333335</v>
@@ -17012,7 +17039,7 @@
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
       <c r="M129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="12">
@@ -17026,7 +17053,7 @@
         <v>47</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T129" s="1" t="s">
         <v>18</v>
@@ -17038,7 +17065,7 @@
         <v>50</v>
       </c>
       <c r="W129" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X129" s="7">
         <v>80</v>
@@ -17053,10 +17080,10 @@
         <v>140.85470000000001</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD129" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE129" s="7"/>
       <c r="AF129" s="1" t="s">
@@ -17066,7 +17093,7 @@
         <v>46</v>
       </c>
       <c r="AN129" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO129" s="7" t="b">
         <v>1</v>
@@ -17090,7 +17117,7 @@
         <v>35</v>
       </c>
       <c r="AV129" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AW129" s="13"/>
       <c r="AX129" s="13"/>
@@ -17109,13 +17136,13 @@
         <v>38</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2">
         <v>42286</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E130" s="3">
         <v>0.40208333333333335</v>
@@ -17134,14 +17161,14 @@
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
       <c r="M130" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N130" s="1"/>
       <c r="O130" s="12">
         <v>0.107</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="8" t="s">
@@ -17160,7 +17187,7 @@
         <v>275</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X130" s="7">
         <v>90</v>
@@ -17175,20 +17202,20 @@
         <v>140.80369999999999</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD130" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE130" s="7"/>
       <c r="AF130" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG130" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN130" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO130" s="7" t="b">
         <v>1</v>
@@ -17212,7 +17239,7 @@
         <v>35</v>
       </c>
       <c r="AV130" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AW130" s="13"/>
       <c r="AX130" s="13"/>
@@ -17237,7 +17264,7 @@
         <v>42289</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E131" s="3">
         <v>0.37708333333333333</v>
@@ -17256,7 +17283,7 @@
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
       <c r="M131" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="12">
@@ -17282,7 +17309,7 @@
         <v>250</v>
       </c>
       <c r="W131" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X131" s="7">
         <v>80</v>
@@ -17297,20 +17324,20 @@
         <v>140.59270000000001</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AD131" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE131" s="7"/>
       <c r="AF131" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG131" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN131" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO131" s="7" t="b">
         <v>1</v>
@@ -17334,7 +17361,7 @@
         <v>37</v>
       </c>
       <c r="AV131" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AW131" s="13"/>
       <c r="AX131" s="13"/>
@@ -17353,13 +17380,13 @@
         <v>38</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2">
         <v>42287</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E132" s="3">
         <v>0.30555555555555558</v>
@@ -17378,7 +17405,7 @@
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="12">
@@ -17389,7 +17416,7 @@
       </c>
       <c r="Q132" s="1"/>
       <c r="R132" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S132" s="1" t="s">
         <v>16</v>
@@ -17404,7 +17431,7 @@
         <v>700</v>
       </c>
       <c r="W132" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X132" s="7">
         <v>0</v>
@@ -17419,7 +17446,7 @@
         <v>140.28909999999999</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD132" s="7" t="s">
         <v>45</v>
@@ -17430,7 +17457,7 @@
         <v>46</v>
       </c>
       <c r="AN132" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO132" s="7" t="b">
         <v>1</v>
@@ -17454,7 +17481,7 @@
         <v>36</v>
       </c>
       <c r="AV132" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AW132" s="13"/>
       <c r="AX132" s="13"/>
@@ -17473,13 +17500,13 @@
         <v>38</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2">
         <v>42287</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E133" s="3">
         <v>0.34722222222222221</v>
@@ -17498,7 +17525,7 @@
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N133" s="1"/>
       <c r="O133" s="12">
@@ -17524,7 +17551,7 @@
         <v>300</v>
       </c>
       <c r="W133" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X133" s="7">
         <v>0</v>
@@ -17539,20 +17566,20 @@
         <v>140.36490000000001</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD133" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE133" s="7"/>
       <c r="AF133" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG133" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN133" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO133" s="7" t="b">
         <v>1</v>
@@ -17573,10 +17600,10 @@
         <v>34</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV133" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AW133" s="13"/>
       <c r="AX133" s="13"/>
@@ -17595,13 +17622,13 @@
         <v>38</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2">
         <v>42285</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E134" s="3">
         <v>0.42708333333333331</v>
@@ -17620,7 +17647,7 @@
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="12">
@@ -17646,7 +17673,7 @@
         <v>100</v>
       </c>
       <c r="W134" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X134" s="7">
         <v>90</v>
@@ -17661,20 +17688,20 @@
         <v>140.91380000000001</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD134" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE134" s="7"/>
       <c r="AF134" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG134" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN134" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO134" s="7" t="b">
         <v>1</v>
@@ -17698,7 +17725,7 @@
         <v>35</v>
       </c>
       <c r="AV134" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW134" s="13"/>
       <c r="AX134" s="13"/>
@@ -17723,7 +17750,7 @@
         <v>42285</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E135" s="3">
         <v>0.4548611111111111</v>
@@ -17742,7 +17769,7 @@
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N135" s="1"/>
       <c r="O135" s="12">
@@ -17768,7 +17795,7 @@
         <v>90</v>
       </c>
       <c r="W135" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X135" s="7">
         <v>75</v>
@@ -17783,10 +17810,10 @@
         <v>140.88069999999999</v>
       </c>
       <c r="AC135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD135" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AD135" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AE135" s="7"/>
       <c r="AF135" s="1" t="s">
@@ -17796,7 +17823,7 @@
         <v>46</v>
       </c>
       <c r="AN135" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO135" s="7" t="b">
         <v>1</v>
@@ -17820,7 +17847,7 @@
         <v>35</v>
       </c>
       <c r="AV135" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW135" s="13"/>
       <c r="AX135" s="13"/>
@@ -17839,13 +17866,13 @@
         <v>38</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2">
         <v>42286</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E136" s="3">
         <v>0.36458333333333331</v>
@@ -17864,7 +17891,7 @@
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
       <c r="M136" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N136" s="1"/>
       <c r="O136" s="12">
@@ -17890,7 +17917,7 @@
         <v>300</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X136" s="7">
         <v>80</v>
@@ -17905,10 +17932,10 @@
         <v>140.8818</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD136" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE136" s="7"/>
       <c r="AF136" s="1" t="s">
@@ -17918,7 +17945,7 @@
         <v>46</v>
       </c>
       <c r="AN136" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO136" s="7" t="b">
         <v>1</v>
@@ -17942,7 +17969,7 @@
         <v>36</v>
       </c>
       <c r="AV136" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW136" s="13"/>
       <c r="AX136" s="13"/>
@@ -17961,13 +17988,13 @@
         <v>38</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2">
         <v>42286</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E137" s="3">
         <v>0.40208333333333335</v>
@@ -17986,14 +18013,14 @@
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N137" s="1"/>
       <c r="O137" s="12">
         <v>0.106</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="8" t="s">
@@ -18012,7 +18039,7 @@
         <v>275</v>
       </c>
       <c r="W137" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X137" s="7">
         <v>90</v>
@@ -18027,20 +18054,20 @@
         <v>140.80369999999999</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD137" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE137" s="7"/>
       <c r="AF137" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG137" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN137" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO137" s="7" t="b">
         <v>1</v>
@@ -18064,7 +18091,7 @@
         <v>35</v>
       </c>
       <c r="AV137" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW137" s="13"/>
       <c r="AX137" s="13"/>
@@ -18083,13 +18110,13 @@
         <v>38</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2">
         <v>42287</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E138" s="3">
         <v>0.34722222222222221</v>
@@ -18108,7 +18135,7 @@
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
       <c r="M138" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N138" s="1"/>
       <c r="O138" s="12">
@@ -18134,7 +18161,7 @@
         <v>300</v>
       </c>
       <c r="W138" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X138" s="7">
         <v>0</v>
@@ -18149,20 +18176,20 @@
         <v>140.36490000000001</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD138" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE138" s="7"/>
       <c r="AF138" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG138" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN138" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO138" s="7" t="b">
         <v>0</v>
@@ -18186,7 +18213,7 @@
         <v>35</v>
       </c>
       <c r="AV138" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW138" s="13"/>
       <c r="AX138" s="13"/>
@@ -18205,13 +18232,13 @@
         <v>38</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139" s="2">
         <v>42285</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E139" s="3">
         <v>0.76527777777777772</v>
@@ -18230,7 +18257,7 @@
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
       <c r="M139" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N139" s="1"/>
       <c r="O139" s="12">
@@ -18256,7 +18283,7 @@
         <v>1000</v>
       </c>
       <c r="W139" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X139" s="7">
         <v>70</v>
@@ -18271,10 +18298,10 @@
         <v>141</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD139" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE139" s="7"/>
       <c r="AF139" s="1" t="s">
@@ -18284,7 +18311,7 @@
         <v>46</v>
       </c>
       <c r="AN139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO139" s="7" t="b">
         <v>1</v>
@@ -18308,7 +18335,7 @@
         <v>35</v>
       </c>
       <c r="AV139" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AW139" s="13"/>
       <c r="AX139" s="13"/>
@@ -18333,7 +18360,7 @@
         <v>42285</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E140" s="3">
         <v>0.4548611111111111</v>
@@ -18352,7 +18379,7 @@
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
       <c r="M140" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="12">
@@ -18378,7 +18405,7 @@
         <v>90</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X140" s="7">
         <v>75</v>
@@ -18393,10 +18420,10 @@
         <v>140.88069999999999</v>
       </c>
       <c r="AC140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD140" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AD140" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AE140" s="7"/>
       <c r="AF140" s="1" t="s">
@@ -18406,7 +18433,7 @@
         <v>46</v>
       </c>
       <c r="AN140" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO140" s="7" t="b">
         <v>1</v>
@@ -18430,7 +18457,7 @@
         <v>35</v>
       </c>
       <c r="AV140" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AW140" s="13"/>
       <c r="AX140" s="13"/>
@@ -18449,13 +18476,13 @@
         <v>38</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2">
         <v>42286</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E141" s="3">
         <v>0.73611111111111116</v>
@@ -18474,7 +18501,7 @@
       <c r="K141" s="11"/>
       <c r="L141" s="11"/>
       <c r="M141" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N141" s="1"/>
       <c r="O141" s="12">
@@ -18515,20 +18542,20 @@
         <v>140.44630000000001</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD141" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE141" s="7"/>
       <c r="AF141" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG141" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN141" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO141" s="7" t="b">
         <v>1</v>
@@ -18552,7 +18579,7 @@
         <v>35</v>
       </c>
       <c r="AV141" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AW141" s="13"/>
       <c r="AX141" s="13"/>
@@ -18571,13 +18598,13 @@
         <v>38</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="2">
         <v>42285</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E142" s="3">
         <v>0.71527777777777779</v>
@@ -18596,7 +18623,7 @@
       <c r="K142" s="11"/>
       <c r="L142" s="11"/>
       <c r="M142" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N142" s="1"/>
       <c r="O142" s="12">
@@ -18622,7 +18649,7 @@
         <v>300</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X142" s="7">
         <v>90</v>
@@ -18637,10 +18664,10 @@
         <v>140.97579999999999</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD142" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE142" s="7"/>
       <c r="AF142" s="1" t="s">
@@ -18650,7 +18677,7 @@
         <v>46</v>
       </c>
       <c r="AN142" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO142" s="7" t="b">
         <v>1</v>
@@ -18674,7 +18701,7 @@
         <v>35</v>
       </c>
       <c r="AV142" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AW142" s="13"/>
       <c r="AX142" s="13"/>
@@ -18693,13 +18720,13 @@
         <v>38</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2">
         <v>42287</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E143" s="3">
         <v>0.46250000000000002</v>
@@ -18718,7 +18745,7 @@
       <c r="K143" s="11"/>
       <c r="L143" s="11"/>
       <c r="M143" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="12">
@@ -18744,7 +18771,7 @@
         <v>100</v>
       </c>
       <c r="W143" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X143" s="7">
         <v>80</v>
@@ -18759,7 +18786,7 @@
         <v>140.5564</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD143" s="7" t="s">
         <v>45</v>
@@ -18770,7 +18797,7 @@
         <v>46</v>
       </c>
       <c r="AN143" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO143" s="7" t="b">
         <v>1</v>
@@ -18794,7 +18821,7 @@
         <v>35</v>
       </c>
       <c r="AV143" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AW143" s="13"/>
       <c r="AX143" s="13"/>
@@ -18819,7 +18846,7 @@
         <v>42289</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E144" s="3">
         <v>0.43055555555555558</v>
@@ -18838,7 +18865,7 @@
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
       <c r="M144" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="12">
@@ -18864,7 +18891,7 @@
         <v>100</v>
       </c>
       <c r="W144" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="X144" s="7">
         <v>80</v>
@@ -18879,20 +18906,20 @@
         <v>140.4171</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD144" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE144" s="7"/>
       <c r="AF144" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG144" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN144" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO144" s="7" t="b">
         <v>1</v>
@@ -18916,7 +18943,7 @@
         <v>35</v>
       </c>
       <c r="AV144" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AW144" s="13"/>
       <c r="AX144" s="13"/>
@@ -18941,7 +18968,7 @@
         <v>42289</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E145" s="3">
         <v>0.45624999999999999</v>
@@ -18960,7 +18987,7 @@
       <c r="K145" s="11"/>
       <c r="L145" s="11"/>
       <c r="M145" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="12">
@@ -18986,7 +19013,7 @@
         <v>80</v>
       </c>
       <c r="W145" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X145" s="7">
         <v>60</v>
@@ -19001,20 +19028,20 @@
         <v>140.3314</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD145" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE145" s="7"/>
       <c r="AF145" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG145" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN145" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO145" s="7" t="b">
         <v>1</v>
@@ -19038,7 +19065,7 @@
         <v>35</v>
       </c>
       <c r="AV145" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AW145" s="13"/>
       <c r="AX145" s="13"/>
@@ -19063,7 +19090,7 @@
         <v>42289</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E146" s="3">
         <v>0.4861111111111111</v>
@@ -19082,7 +19109,7 @@
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
       <c r="M146" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="12">
@@ -19093,7 +19120,7 @@
       </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>15</v>
@@ -19108,7 +19135,7 @@
         <v>60</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="X146" s="7">
         <v>40</v>
@@ -19123,20 +19150,20 @@
         <v>140.2552</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AD146" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AE146" s="7"/>
       <c r="AF146" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG146" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AN146" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO146" s="7" t="b">
         <v>1</v>
@@ -19160,7 +19187,7 @@
         <v>35</v>
       </c>
       <c r="AV146" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AW146" s="13"/>
       <c r="AX146" s="13"/>
@@ -19185,7 +19212,7 @@
         <v>42289</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E147" s="3">
         <v>0.40416666666666667</v>
@@ -19204,7 +19231,7 @@
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
       <c r="M147" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="12">
@@ -19230,7 +19257,7 @@
         <v>200</v>
       </c>
       <c r="W147" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="X147" s="7">
         <v>80</v>
@@ -19245,10 +19272,10 @@
         <v>140.49879999999999</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD147" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE147" s="7"/>
       <c r="AF147" s="1" t="s">
@@ -19258,7 +19285,7 @@
         <v>46</v>
       </c>
       <c r="AN147" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO147" s="7" t="b">
         <v>1</v>
@@ -19282,7 +19309,7 @@
         <v>35</v>
       </c>
       <c r="AV147" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AW147" s="13"/>
       <c r="AX147" s="13"/>
@@ -19301,13 +19328,13 @@
         <v>38</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2">
         <v>42287</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E148" s="3">
         <v>0.41458333333333336</v>
@@ -19326,7 +19353,7 @@
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
       <c r="M148" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="12">
@@ -19352,7 +19379,7 @@
         <v>150</v>
       </c>
       <c r="W148" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="X148" s="7">
         <v>80</v>
@@ -19367,7 +19394,7 @@
         <v>140.50120000000001</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD148" s="7" t="s">
         <v>45</v>
@@ -19375,10 +19402,10 @@
       <c r="AE148" s="7"/>
       <c r="AF148" s="1"/>
       <c r="AG148" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN148" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO148" s="7" t="b">
         <v>1</v>
@@ -19402,7 +19429,7 @@
         <v>35</v>
       </c>
       <c r="AV148" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AW148" s="13"/>
       <c r="AX148" s="13"/>
